--- a/Race Dashboard data/leaderboard.xlsx
+++ b/Race Dashboard data/leaderboard.xlsx
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89.1536353057073</v>
+        <v>89.15356260880202</v>
       </c>
       <c r="D2" t="n">
         <v>69.32576738406046</v>
@@ -535,10 +535,10 @@
         <v>89.97919386951025</v>
       </c>
       <c r="G2" t="n">
-        <v>316.6853530010437</v>
+        <v>316.6852803041384</v>
       </c>
       <c r="H2" t="n">
-        <v>226.7061591315334</v>
+        <v>226.7060864346281</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88.91032453363262</v>
+        <v>88.91025183672734</v>
       </c>
       <c r="D3" t="n">
         <v>69.25652201212475</v>
@@ -587,13 +587,13 @@
         <v>75.23269315050706</v>
       </c>
       <c r="F3" t="n">
-        <v>89.68083361507394</v>
+        <v>89.67411258749307</v>
       </c>
       <c r="G3" t="n">
-        <v>323.0803733113383</v>
+        <v>323.0735795868522</v>
       </c>
       <c r="H3" t="n">
-        <v>233.3995396962644</v>
+        <v>233.3994669993591</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>6.395020310294683</v>
+        <v>6.388299282713831</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.395020310294683</v>
+        <v>6.388299282713831</v>
       </c>
       <c r="O3" t="n">
         <v>0.4510313865295862</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88.84737139911773</v>
+        <v>88.84729870221246</v>
       </c>
       <c r="D4" t="n">
         <v>74.22670361858189</v>
@@ -644,13 +644,13 @@
         <v>89.4079962040941</v>
       </c>
       <c r="F4" t="n">
-        <v>89.42751942795584</v>
+        <v>89.42532700417411</v>
       </c>
       <c r="G4" t="n">
-        <v>341.9095906497496</v>
+        <v>341.9073255290626</v>
       </c>
       <c r="H4" t="n">
-        <v>252.4820712217937</v>
+        <v>252.4819985248885</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>25.22423764870592</v>
+        <v>25.22204522492422</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18.82921733841124</v>
+        <v>18.83374594221038</v>
       </c>
       <c r="O4" t="n">
         <v>0.377682561261701</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88.84984757723124</v>
+        <v>88.84977488032595</v>
       </c>
       <c r="D5" t="n">
         <v>74.90884176802737</v>
@@ -704,10 +704,10 @@
         <v>89.86260062479465</v>
       </c>
       <c r="G5" t="n">
-        <v>343.6332688063837</v>
+        <v>343.6331961094784</v>
       </c>
       <c r="H5" t="n">
-        <v>253.7706681815891</v>
+        <v>253.7705954846838</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>26.94791580534007</v>
+        <v>26.94791580534002</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.723678156634151</v>
+        <v>1.725870580415801</v>
       </c>
       <c r="O5" t="n">
         <v>0.3515638108428969</v>
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88.95405542136324</v>
+        <v>88.95398272445796</v>
       </c>
       <c r="D6" t="n">
-        <v>81.80634523279082</v>
+        <v>81.80634523279083</v>
       </c>
       <c r="E6" t="n">
         <v>84.85767031590619</v>
@@ -761,10 +761,10 @@
         <v>89.52248771922937</v>
       </c>
       <c r="G6" t="n">
-        <v>345.1405586892897</v>
+        <v>345.1404859923844</v>
       </c>
       <c r="H6" t="n">
-        <v>255.6180709700603</v>
+        <v>255.617998273155</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.507289882905923</v>
+        <v>1.50728988290598</v>
       </c>
       <c r="O6" t="n">
         <v>0.5300679047300774</v>
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>89.24897240532115</v>
+        <v>89.24871235062864</v>
       </c>
       <c r="D7" t="n">
-        <v>83.74247138201029</v>
+        <v>83.74237770311667</v>
       </c>
       <c r="E7" t="n">
         <v>84.76718092710024</v>
@@ -818,10 +818,10 @@
         <v>89.76082496188289</v>
       </c>
       <c r="G7" t="n">
-        <v>347.5194496763146</v>
+        <v>347.5190959427284</v>
       </c>
       <c r="H7" t="n">
-        <v>257.7586247144317</v>
+        <v>257.7582709808456</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>30.83409667527093</v>
+        <v>30.83381563859007</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.378890987024931</v>
+        <v>2.378609950344071</v>
       </c>
       <c r="O7" t="n">
         <v>0.5996714418550643</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>89.96053754312953</v>
+        <v>89.96046484622426</v>
       </c>
       <c r="D8" t="n">
         <v>82.59617419552187</v>
@@ -875,10 +875,10 @@
         <v>90.97913715800746</v>
       </c>
       <c r="G8" t="n">
-        <v>348.9820813825274</v>
+        <v>348.9820086856221</v>
       </c>
       <c r="H8" t="n">
-        <v>258.00294422452</v>
+        <v>258.0028715276147</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.462631706212846</v>
+        <v>1.462912742893707</v>
       </c>
       <c r="O8" t="n">
         <v>0.4435220172822657</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89.13791909437684</v>
+        <v>89.13784639747155</v>
       </c>
       <c r="D9" t="n">
         <v>90.32304377570023</v>
@@ -929,13 +929,13 @@
         <v>84.20559790303417</v>
       </c>
       <c r="F9" t="n">
-        <v>89.84976519780568</v>
+        <v>89.90214384529565</v>
       </c>
       <c r="G9" t="n">
-        <v>353.5163259709169</v>
+        <v>353.5686319215016</v>
       </c>
       <c r="H9" t="n">
-        <v>263.6665607731113</v>
+        <v>263.666488076206</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>36.83097296987324</v>
+        <v>36.88335161736325</v>
       </c>
       <c r="L9" t="n">
         <v>8</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.53424458838947</v>
+        <v>4.586623235879472</v>
       </c>
       <c r="O9" t="n">
         <v>0.3326567108433734</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>88.58545125035194</v>
+        <v>88.58537855344666</v>
       </c>
       <c r="D10" t="n">
         <v>89.60481089476718</v>
@@ -989,10 +989,10 @@
         <v>89.31850225216407</v>
       </c>
       <c r="G10" t="n">
-        <v>357.413519019643</v>
+        <v>357.4134463227378</v>
       </c>
       <c r="H10" t="n">
-        <v>268.095016767479</v>
+        <v>268.0949440705737</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>40.72816601859938</v>
+        <v>40.72816601859944</v>
       </c>
       <c r="L10" t="n">
         <v>10</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.897193048726137</v>
+        <v>3.844814401236192</v>
       </c>
       <c r="O10" t="n">
         <v>0.353020830480625</v>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89.96053754312953</v>
+        <v>89.96046484622426</v>
       </c>
       <c r="D11" t="n">
-        <v>88.5255701299336</v>
+        <v>88.52549743302832</v>
       </c>
       <c r="E11" t="n">
         <v>89.63684712032664</v>
@@ -1046,10 +1046,10 @@
         <v>89.54748342131538</v>
       </c>
       <c r="G11" t="n">
-        <v>357.6704382147052</v>
+        <v>357.6702928208946</v>
       </c>
       <c r="H11" t="n">
-        <v>268.1229547933898</v>
+        <v>268.1228093995792</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>40.98508521366153</v>
+        <v>40.98501251675623</v>
       </c>
       <c r="L11" t="n">
         <v>11</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.256919195062153</v>
+        <v>0.2568464981567899</v>
       </c>
       <c r="O11" t="n">
         <v>0.4278544696362875</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>88.71047981582875</v>
+        <v>88.71040711892347</v>
       </c>
       <c r="D12" t="n">
         <v>89.59116432895655</v>
@@ -1100,13 +1100,13 @@
         <v>89.3819414159061</v>
       </c>
       <c r="F12" t="n">
-        <v>90.46964417405562</v>
+        <v>90.52963378983419</v>
       </c>
       <c r="G12" t="n">
-        <v>358.153229734747</v>
+        <v>358.2131466536203</v>
       </c>
       <c r="H12" t="n">
-        <v>267.6835855606914</v>
+        <v>267.6835128637861</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>41.46787673370335</v>
+        <v>41.52786634948194</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
@@ -1126,7 +1126,7 @@
         <v>-2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4827915200418147</v>
+        <v>0.5428538327257115</v>
       </c>
       <c r="O12" t="n">
         <v>0.4835047030277628</v>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89.96053754312953</v>
+        <v>89.96046484622426</v>
       </c>
       <c r="D13" t="n">
-        <v>89.02016235929419</v>
+        <v>89.01999598349529</v>
       </c>
       <c r="E13" t="n">
         <v>89.83825599886204</v>
@@ -1160,10 +1160,10 @@
         <v>89.97153862113215</v>
       </c>
       <c r="G13" t="n">
-        <v>358.7904945224179</v>
+        <v>358.7902554497138</v>
       </c>
       <c r="H13" t="n">
-        <v>268.8189559012858</v>
+        <v>268.8187168285816</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>42.10514152137426</v>
+        <v>42.10497514557539</v>
       </c>
       <c r="L13" t="n">
         <v>12</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6372647876709152</v>
+        <v>0.5771087960934551</v>
       </c>
       <c r="O13" t="n">
         <v>0.592205529005292</v>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>89.24897240532115</v>
+        <v>89.24871235062864</v>
       </c>
       <c r="D14" t="n">
         <v>89.72575436709944</v>
@@ -1217,10 +1217,10 @@
         <v>89.55994592462767</v>
       </c>
       <c r="G14" t="n">
-        <v>359.0296762221883</v>
+        <v>359.0294161674958</v>
       </c>
       <c r="H14" t="n">
-        <v>269.4697302975606</v>
+        <v>269.4694702428681</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34432322114463</v>
+        <v>42.34413586335745</v>
       </c>
       <c r="L14" t="n">
         <v>14</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.23918169977037</v>
+        <v>0.2391607177820561</v>
       </c>
       <c r="O14" t="n">
         <v>0.4796929910210168</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>89.02134410065618</v>
+        <v>89.0212714037509</v>
       </c>
       <c r="D15" t="n">
         <v>89.74784125018499</v>
@@ -1274,10 +1274,10 @@
         <v>90.13080359394394</v>
       </c>
       <c r="G15" t="n">
-        <v>359.2614770618196</v>
+        <v>359.2614043649143</v>
       </c>
       <c r="H15" t="n">
-        <v>269.1306734678756</v>
+        <v>269.1306007709704</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>42.5761240607759</v>
+        <v>42.57612406077595</v>
       </c>
       <c r="L15" t="n">
         <v>13</v>
@@ -1297,7 +1297,7 @@
         <v>-1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2318008396312621</v>
+        <v>0.2319881974185023</v>
       </c>
       <c r="O15" t="n">
         <v>0.5285179030297434</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>88.95275457141432</v>
+        <v>88.95268187450904</v>
       </c>
       <c r="D16" t="n">
         <v>90.45187443366692</v>
@@ -1328,13 +1328,13 @@
         <v>90.261138222436</v>
       </c>
       <c r="F16" t="n">
-        <v>90.59418483287254</v>
+        <v>90.62294204191628</v>
       </c>
       <c r="G16" t="n">
-        <v>360.2599520603898</v>
+        <v>360.2886365725283</v>
       </c>
       <c r="H16" t="n">
-        <v>269.6657672275172</v>
+        <v>269.665694530612</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>43.5745990593461</v>
+        <v>43.60335626838992</v>
       </c>
       <c r="L16" t="n">
         <v>15</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9984749985702024</v>
+        <v>1.027232207613963</v>
       </c>
       <c r="O16" t="n">
         <v>0.3975028653085158</v>
